--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Pdgfd</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.49390166666667</v>
+        <v>17.82935533333333</v>
       </c>
       <c r="H2">
-        <v>55.48170500000001</v>
+        <v>53.488066</v>
       </c>
       <c r="I2">
-        <v>0.8266980363202227</v>
+        <v>0.8952438455241645</v>
       </c>
       <c r="J2">
-        <v>0.8536248137599599</v>
+        <v>0.9008114332581367</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.164182666666667</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N2">
-        <v>27.492548</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O2">
-        <v>0.03970753467660135</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P2">
-        <v>0.04986509649035763</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q2">
-        <v>169.4814930927045</v>
+        <v>49.99373225004912</v>
       </c>
       <c r="R2">
-        <v>1525.33343783434</v>
+        <v>449.9435902504421</v>
       </c>
       <c r="S2">
-        <v>0.03282614094426348</v>
+        <v>0.02601785692520214</v>
       </c>
       <c r="T2">
-        <v>0.04256608370470396</v>
+        <v>0.0274348117993523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.49390166666667</v>
+        <v>17.82935533333333</v>
       </c>
       <c r="H3">
-        <v>55.48170500000001</v>
+        <v>53.488066</v>
       </c>
       <c r="I3">
-        <v>0.8266980363202227</v>
+        <v>0.8952438455241645</v>
       </c>
       <c r="J3">
-        <v>0.8536248137599599</v>
+        <v>0.9008114332581367</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3480374900289019</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P3">
-        <v>0.437068761984357</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q3">
-        <v>1485.5093357658</v>
+        <v>1432.13013001416</v>
       </c>
       <c r="R3">
-        <v>13369.5840218922</v>
+        <v>12889.17117012744</v>
       </c>
       <c r="S3">
-        <v>0.2877219095727123</v>
+        <v>0.7453125650754537</v>
       </c>
       <c r="T3">
-        <v>0.3730927405491929</v>
+        <v>0.7859029286432565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +646,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.49390166666667</v>
+        <v>17.82935533333333</v>
       </c>
       <c r="H4">
-        <v>55.48170500000001</v>
+        <v>53.488066</v>
       </c>
       <c r="I4">
-        <v>0.8266980363202227</v>
+        <v>0.8952438455241645</v>
       </c>
       <c r="J4">
-        <v>0.8536248137599599</v>
+        <v>0.9008114332581367</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.118916</v>
+        <v>0.112158</v>
       </c>
       <c r="N4">
-        <v>0.356748</v>
+        <v>0.336474</v>
       </c>
       <c r="O4">
-        <v>0.0005152517540683453</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P4">
-        <v>0.0006470580116016203</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q4">
-        <v>2.199220810593334</v>
+        <v>1.999704835476</v>
       </c>
       <c r="R4">
-        <v>19.79298729534</v>
+        <v>17.997343519284</v>
       </c>
       <c r="S4">
-        <v>0.0004259576132988513</v>
+        <v>0.001040691141878056</v>
       </c>
       <c r="T4">
-        <v>0.0005523447746453231</v>
+        <v>0.001097368076884976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.49390166666667</v>
+        <v>17.82935533333333</v>
       </c>
       <c r="H5">
-        <v>55.48170500000001</v>
+        <v>53.488066</v>
       </c>
       <c r="I5">
-        <v>0.8266980363202227</v>
+        <v>0.8952438455241645</v>
       </c>
       <c r="J5">
-        <v>0.8536248137599599</v>
+        <v>0.9008114332581367</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +741,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.03759</v>
+        <v>13.242315</v>
       </c>
       <c r="N5">
-        <v>282.07518</v>
+        <v>26.48463</v>
       </c>
       <c r="O5">
-        <v>0.6111025062823514</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P5">
-        <v>0.5116188600720092</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q5">
-        <v>2608.33532076365</v>
+        <v>236.10193957093</v>
       </c>
       <c r="R5">
-        <v>15650.0119245819</v>
+        <v>1416.61163742558</v>
       </c>
       <c r="S5">
-        <v>0.5051972419339864</v>
+        <v>0.1228727323816305</v>
       </c>
       <c r="T5">
-        <v>0.4367305541450519</v>
+        <v>0.08637632473864294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.49390166666667</v>
+        <v>1.717012</v>
       </c>
       <c r="H6">
-        <v>55.48170500000001</v>
+        <v>5.151036</v>
       </c>
       <c r="I6">
-        <v>0.8266980363202227</v>
+        <v>0.08621424594176597</v>
       </c>
       <c r="J6">
-        <v>0.8536248137599599</v>
+        <v>0.08675041871815405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1470646666666666</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N6">
-        <v>0.441194</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O6">
-        <v>0.0006372172580769324</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P6">
-        <v>0.0008002234416746982</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q6">
-        <v>2.719799483974445</v>
+        <v>4.814522824481334</v>
       </c>
       <c r="R6">
-        <v>24.47819535577</v>
+        <v>43.330705420332</v>
       </c>
       <c r="S6">
-        <v>0.0005267862559615565</v>
+        <v>0.00250558540786585</v>
       </c>
       <c r="T6">
-        <v>0.0006830905863659184</v>
+        <v>0.002642041745006979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>5.151036</v>
       </c>
       <c r="I7">
-        <v>0.07675235190077112</v>
+        <v>0.08621424594176597</v>
       </c>
       <c r="J7">
-        <v>0.0792522894920199</v>
+        <v>0.08675041871815405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.164182666666667</v>
+        <v>80.32428</v>
       </c>
       <c r="N7">
-        <v>27.492548</v>
+        <v>240.97284</v>
       </c>
       <c r="O7">
-        <v>0.03970753467660135</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P7">
-        <v>0.04986509649035763</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q7">
-        <v>15.73501160885866</v>
+        <v>137.91775265136</v>
       </c>
       <c r="R7">
-        <v>141.615104479728</v>
+        <v>1241.25977386224</v>
       </c>
       <c r="S7">
-        <v>0.003047646674610579</v>
+        <v>0.07177548453436333</v>
       </c>
       <c r="T7">
-        <v>0.003951923062601328</v>
+        <v>0.07568443917839252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>5.151036</v>
       </c>
       <c r="I8">
-        <v>0.07675235190077112</v>
+        <v>0.08621424594176597</v>
       </c>
       <c r="J8">
-        <v>0.0792522894920199</v>
+        <v>0.08675041871815405</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.32428</v>
+        <v>0.112158</v>
       </c>
       <c r="N8">
-        <v>240.97284</v>
+        <v>0.336474</v>
       </c>
       <c r="O8">
-        <v>0.3480374900289019</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P8">
-        <v>0.437068761984357</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q8">
-        <v>137.91775265136</v>
+        <v>0.192576631896</v>
       </c>
       <c r="R8">
-        <v>1241.25977386224</v>
+        <v>1.733189687064</v>
       </c>
       <c r="S8">
-        <v>0.0267126959093594</v>
+        <v>0.0001002211883431152</v>
       </c>
       <c r="T8">
-        <v>0.034638700052703</v>
+        <v>0.0001056793204915145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,134 +977,134 @@
         <v>5.151036</v>
       </c>
       <c r="I9">
-        <v>0.07675235190077112</v>
+        <v>0.08621424594176597</v>
       </c>
       <c r="J9">
-        <v>0.0792522894920199</v>
+        <v>0.08675041871815405</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.118916</v>
+        <v>13.242315</v>
       </c>
       <c r="N9">
-        <v>0.356748</v>
+        <v>26.48463</v>
       </c>
       <c r="O9">
-        <v>0.0005152517540683453</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P9">
-        <v>0.0006470580116016203</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q9">
-        <v>0.204180198992</v>
+        <v>22.73721376277999</v>
       </c>
       <c r="R9">
-        <v>1.837621790928</v>
+        <v>136.42328257668</v>
       </c>
       <c r="S9">
-        <v>3.954678394574322E-05</v>
+        <v>0.01183295481119367</v>
       </c>
       <c r="T9">
-        <v>5.128082885358238E-05</v>
+        <v>0.008318258474263032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.717012</v>
+        <v>0.369274</v>
       </c>
       <c r="H10">
-        <v>5.151036</v>
+        <v>0.738548</v>
       </c>
       <c r="I10">
-        <v>0.07675235190077112</v>
+        <v>0.01854190853406947</v>
       </c>
       <c r="J10">
-        <v>0.0792522894920199</v>
+        <v>0.01243814802370926</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.03759</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N10">
-        <v>282.07518</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O10">
-        <v>0.6111025062823514</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P10">
-        <v>0.5116188600720092</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q10">
-        <v>242.16323448108</v>
+        <v>1.035448850379334</v>
       </c>
       <c r="R10">
-        <v>1452.97940688648</v>
+        <v>6.212693102276001</v>
       </c>
       <c r="S10">
-        <v>0.04690355460962623</v>
+        <v>0.000538870750993152</v>
       </c>
       <c r="T10">
-        <v>0.04054696600800409</v>
+        <v>0.0003788120771610633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.717012</v>
+        <v>0.369274</v>
       </c>
       <c r="H11">
-        <v>5.151036</v>
+        <v>0.738548</v>
       </c>
       <c r="I11">
-        <v>0.07675235190077112</v>
+        <v>0.01854190853406947</v>
       </c>
       <c r="J11">
-        <v>0.0792522894920199</v>
+        <v>0.01243814802370926</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1470646666666666</v>
+        <v>80.32428</v>
       </c>
       <c r="N11">
-        <v>0.441194</v>
+        <v>240.97284</v>
       </c>
       <c r="O11">
-        <v>0.0006372172580769324</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P11">
-        <v>0.0008002234416746982</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q11">
-        <v>0.2525117974426666</v>
+        <v>29.66166817272</v>
       </c>
       <c r="R11">
-        <v>2.272606176984</v>
+        <v>177.97000903632</v>
       </c>
       <c r="S11">
-        <v>4.89079232291652E-05</v>
+        <v>0.01543659582806788</v>
       </c>
       <c r="T11">
-        <v>6.341953985790368E-05</v>
+        <v>0.01085152407910243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.116997</v>
+        <v>0.369274</v>
       </c>
       <c r="H12">
-        <v>4.233994</v>
+        <v>0.738548</v>
       </c>
       <c r="I12">
-        <v>0.0946321276245459</v>
+        <v>0.01854190853406947</v>
       </c>
       <c r="J12">
-        <v>0.06514295729936179</v>
+        <v>0.01243814802370926</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.164182666666667</v>
+        <v>0.112158</v>
       </c>
       <c r="N12">
-        <v>27.492548</v>
+        <v>0.336474</v>
       </c>
       <c r="O12">
-        <v>0.03970753467660135</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P12">
-        <v>0.04986509649035763</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q12">
-        <v>19.40054721278533</v>
+        <v>0.041417033292</v>
       </c>
       <c r="R12">
-        <v>116.403283276712</v>
+        <v>0.248502199752</v>
       </c>
       <c r="S12">
-        <v>0.00375760848917222</v>
+        <v>2.155435087478452E-05</v>
       </c>
       <c r="T12">
-        <v>0.003248359851399922</v>
+        <v>1.51521462459915E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,542 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.116997</v>
+        <v>0.369274</v>
       </c>
       <c r="H13">
-        <v>4.233994</v>
+        <v>0.738548</v>
       </c>
       <c r="I13">
-        <v>0.0946321276245459</v>
+        <v>0.01854190853406947</v>
       </c>
       <c r="J13">
-        <v>0.06514295729936179</v>
+        <v>0.01243814802370926</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.32428</v>
+        <v>13.242315</v>
       </c>
       <c r="N13">
-        <v>240.97284</v>
+        <v>26.48463</v>
       </c>
       <c r="O13">
-        <v>0.3480374900289019</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P13">
-        <v>0.437068761984357</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q13">
-        <v>170.04625978716</v>
+        <v>4.89004262931</v>
       </c>
       <c r="R13">
-        <v>1020.27755872296</v>
+        <v>19.56017051724</v>
       </c>
       <c r="S13">
-        <v>0.03293552817454167</v>
+        <v>0.002544887604133653</v>
       </c>
       <c r="T13">
-        <v>0.02847195169883189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.116997</v>
-      </c>
-      <c r="H14">
-        <v>4.233994</v>
-      </c>
-      <c r="I14">
-        <v>0.0946321276245459</v>
-      </c>
-      <c r="J14">
-        <v>0.06514295729936179</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.118916</v>
-      </c>
-      <c r="N14">
-        <v>0.356748</v>
-      </c>
-      <c r="O14">
-        <v>0.0005152517540683453</v>
-      </c>
-      <c r="P14">
-        <v>0.0006470580116016203</v>
-      </c>
-      <c r="Q14">
-        <v>0.251744815252</v>
-      </c>
-      <c r="R14">
-        <v>1.510468891512</v>
-      </c>
-      <c r="S14">
-        <v>4.875936974976679E-05</v>
-      </c>
-      <c r="T14">
-        <v>4.21512724199743E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.116997</v>
-      </c>
-      <c r="H15">
-        <v>4.233994</v>
-      </c>
-      <c r="I15">
-        <v>0.0946321276245459</v>
-      </c>
-      <c r="J15">
-        <v>0.06514295729936179</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>141.03759</v>
-      </c>
-      <c r="N15">
-        <v>282.07518</v>
-      </c>
-      <c r="O15">
-        <v>0.6111025062823514</v>
-      </c>
-      <c r="P15">
-        <v>0.5116188600720092</v>
-      </c>
-      <c r="Q15">
-        <v>298.57615491723</v>
-      </c>
-      <c r="R15">
-        <v>1194.30461966892</v>
-      </c>
-      <c r="S15">
-        <v>0.05782993036619134</v>
-      </c>
-      <c r="T15">
-        <v>0.03332836555521905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.116997</v>
-      </c>
-      <c r="H16">
-        <v>4.233994</v>
-      </c>
-      <c r="I16">
-        <v>0.0946321276245459</v>
-      </c>
-      <c r="J16">
-        <v>0.06514295729936179</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.1470646666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.441194</v>
-      </c>
-      <c r="O16">
-        <v>0.0006372172580769324</v>
-      </c>
-      <c r="P16">
-        <v>0.0008002234416746982</v>
-      </c>
-      <c r="Q16">
-        <v>0.3113354581393333</v>
-      </c>
-      <c r="R16">
-        <v>1.868012748836</v>
-      </c>
-      <c r="S16">
-        <v>6.030122489089947E-05</v>
-      </c>
-      <c r="T16">
-        <v>5.212892149096319E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.04289566666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.128687</v>
-      </c>
-      <c r="I17">
-        <v>0.001917484154460294</v>
-      </c>
-      <c r="J17">
-        <v>0.001979939448658399</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>9.164182666666667</v>
-      </c>
-      <c r="N17">
-        <v>27.492548</v>
-      </c>
-      <c r="O17">
-        <v>0.03970753467660135</v>
-      </c>
-      <c r="P17">
-        <v>0.04986509649035763</v>
-      </c>
-      <c r="Q17">
-        <v>0.3931037249417778</v>
-      </c>
-      <c r="R17">
-        <v>3.537933524476</v>
-      </c>
-      <c r="S17">
-        <v>7.613856855506573E-05</v>
-      </c>
-      <c r="T17">
-        <v>9.872987165241656E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.04289566666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.128687</v>
-      </c>
-      <c r="I18">
-        <v>0.001917484154460294</v>
-      </c>
-      <c r="J18">
-        <v>0.001979939448658399</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>80.32428</v>
-      </c>
-      <c r="N18">
-        <v>240.97284</v>
-      </c>
-      <c r="O18">
-        <v>0.3480374900289019</v>
-      </c>
-      <c r="P18">
-        <v>0.437068761984357</v>
-      </c>
-      <c r="Q18">
-        <v>3.44556354012</v>
-      </c>
-      <c r="R18">
-        <v>31.01007186108</v>
-      </c>
-      <c r="S18">
-        <v>0.0006673563722885521</v>
-      </c>
-      <c r="T18">
-        <v>0.0008653696836291168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.04289566666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.128687</v>
-      </c>
-      <c r="I19">
-        <v>0.001917484154460294</v>
-      </c>
-      <c r="J19">
-        <v>0.001979939448658399</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.118916</v>
-      </c>
-      <c r="N19">
-        <v>0.356748</v>
-      </c>
-      <c r="O19">
-        <v>0.0005152517540683453</v>
-      </c>
-      <c r="P19">
-        <v>0.0006470580116016203</v>
-      </c>
-      <c r="Q19">
-        <v>0.005100981097333333</v>
-      </c>
-      <c r="R19">
-        <v>0.045908829876</v>
-      </c>
-      <c r="S19">
-        <v>9.879870739839244E-07</v>
-      </c>
-      <c r="T19">
-        <v>1.281135682740512E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.04289566666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.128687</v>
-      </c>
-      <c r="I20">
-        <v>0.001917484154460294</v>
-      </c>
-      <c r="J20">
-        <v>0.001979939448658399</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>141.03759</v>
-      </c>
-      <c r="N20">
-        <v>282.07518</v>
-      </c>
-      <c r="O20">
-        <v>0.6111025062823514</v>
-      </c>
-      <c r="P20">
-        <v>0.5116188600720092</v>
-      </c>
-      <c r="Q20">
-        <v>6.04990144811</v>
-      </c>
-      <c r="R20">
-        <v>36.29940868865999</v>
-      </c>
-      <c r="S20">
-        <v>0.001171779372547381</v>
-      </c>
-      <c r="T20">
-        <v>0.001012974363734212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.04289566666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.128687</v>
-      </c>
-      <c r="I21">
-        <v>0.001917484154460294</v>
-      </c>
-      <c r="J21">
-        <v>0.001979939448658399</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1470646666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.441194</v>
-      </c>
-      <c r="O21">
-        <v>0.0006372172580769324</v>
-      </c>
-      <c r="P21">
-        <v>0.0008002234416746982</v>
-      </c>
-      <c r="Q21">
-        <v>0.006308436919777777</v>
-      </c>
-      <c r="R21">
-        <v>0.05677593227799999</v>
-      </c>
-      <c r="S21">
-        <v>1.221853995311154E-06</v>
-      </c>
-      <c r="T21">
-        <v>1.584393959912929E-06</v>
+        <v>0.001192659721199777</v>
       </c>
     </row>
   </sheetData>
